--- a/5)Censo/Censos_2005_2018_Huila.xlsx
+++ b/5)Censo/Censos_2005_2018_Huila.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pleal\Documents\Unal\3_semestre\Materias\Muestreo\Tareas\5)Censo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FD0DA3-1E05-4FC7-8F5C-3432F6AC0D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267B3D2F-5AD5-4B60-8209-5C3607AD5E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{07E2D503-BE16-4BC5-9912-DF52E3C0A38B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{07E2D503-BE16-4BC5-9912-DF52E3C0A38B}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados" sheetId="8" r:id="rId1"/>
@@ -768,6 +768,7 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -780,7 +781,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1124,7 +1124,7 @@
   <dimension ref="C3:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1792,7 +1792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7B74D8-D6CA-4870-B3B9-3C92507113BF}">
   <dimension ref="B2:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="N6" sqref="N6:N10"/>
     </sheetView>
   </sheetViews>
@@ -1818,10 +1818,10 @@
       <c r="D2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="4" t="s">
         <v>80</v>
       </c>
@@ -3245,8 +3245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE2B4E3-68BA-4F8F-BAF3-90974E07F60C}">
   <dimension ref="B2:AA40"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView topLeftCell="M5" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3291,10 +3291,10 @@
       <c r="H2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="39"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="4" t="s">
         <v>98</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>0.5992174681307586</v>
       </c>
       <c r="K3" s="11">
-        <v>9.4046704189210018E-2</v>
+        <v>9.4046704189210004E-2</v>
       </c>
       <c r="L3" s="22">
         <f>(SUMPRODUCT(($K$3&gt;=I3)*($K$3&lt;=J3)))</f>
@@ -7356,8 +7356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B34020-7BA4-4E17-8EC5-2A59F0D01E32}">
   <dimension ref="B2:AX140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7391,46 +7391,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:49" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="40"/>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="40"/>
-      <c r="AU2" s="40"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="41"/>
     </row>
     <row r="3" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -12515,7 +12515,7 @@
       </c>
     </row>
     <row r="42" spans="2:50" x14ac:dyDescent="0.3">
-      <c r="E42" s="42">
+      <c r="E42" s="38">
         <f>SUM(E4:E40)</f>
         <v>8.0000000000000018</v>
       </c>
@@ -12676,46 +12676,46 @@
       </c>
     </row>
     <row r="45" spans="2:50" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="L45" s="40" t="s">
+      <c r="L45" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="40"/>
-      <c r="U45" s="40"/>
-      <c r="V45" s="40"/>
-      <c r="W45" s="40"/>
-      <c r="X45" s="40"/>
-      <c r="Y45" s="40"/>
-      <c r="Z45" s="40"/>
-      <c r="AA45" s="40"/>
-      <c r="AB45" s="40"/>
-      <c r="AC45" s="40"/>
-      <c r="AD45" s="40"/>
-      <c r="AE45" s="40"/>
-      <c r="AF45" s="40"/>
-      <c r="AG45" s="40"/>
-      <c r="AH45" s="40"/>
-      <c r="AI45" s="40"/>
-      <c r="AJ45" s="40"/>
-      <c r="AK45" s="40"/>
-      <c r="AL45" s="40"/>
-      <c r="AM45" s="40"/>
-      <c r="AN45" s="40"/>
-      <c r="AO45" s="40"/>
-      <c r="AP45" s="40"/>
-      <c r="AQ45" s="40"/>
-      <c r="AR45" s="40"/>
-      <c r="AS45" s="40"/>
-      <c r="AT45" s="40"/>
-      <c r="AU45" s="40"/>
-      <c r="AV45" s="40"/>
-      <c r="AW45" s="40"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="41"/>
+      <c r="W45" s="41"/>
+      <c r="X45" s="41"/>
+      <c r="Y45" s="41"/>
+      <c r="Z45" s="41"/>
+      <c r="AA45" s="41"/>
+      <c r="AB45" s="41"/>
+      <c r="AC45" s="41"/>
+      <c r="AD45" s="41"/>
+      <c r="AE45" s="41"/>
+      <c r="AF45" s="41"/>
+      <c r="AG45" s="41"/>
+      <c r="AH45" s="41"/>
+      <c r="AI45" s="41"/>
+      <c r="AJ45" s="41"/>
+      <c r="AK45" s="41"/>
+      <c r="AL45" s="41"/>
+      <c r="AM45" s="41"/>
+      <c r="AN45" s="41"/>
+      <c r="AO45" s="41"/>
+      <c r="AP45" s="41"/>
+      <c r="AQ45" s="41"/>
+      <c r="AR45" s="41"/>
+      <c r="AS45" s="41"/>
+      <c r="AT45" s="41"/>
+      <c r="AU45" s="41"/>
+      <c r="AV45" s="41"/>
+      <c r="AW45" s="41"/>
     </row>
     <row r="46" spans="2:50" x14ac:dyDescent="0.3">
       <c r="M46" s="12" t="s">
@@ -17280,39 +17280,39 @@
       </c>
     </row>
     <row r="88" spans="12:50" x14ac:dyDescent="0.3">
-      <c r="L88" s="41" t="s">
+      <c r="L88" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="M88" s="41"/>
-      <c r="N88" s="41"/>
-      <c r="O88" s="41"/>
-      <c r="P88" s="41"/>
-      <c r="Q88" s="41"/>
-      <c r="R88" s="41"/>
-      <c r="S88" s="41"/>
-      <c r="T88" s="41"/>
-      <c r="V88" s="41" t="s">
+      <c r="M88" s="42"/>
+      <c r="N88" s="42"/>
+      <c r="O88" s="42"/>
+      <c r="P88" s="42"/>
+      <c r="Q88" s="42"/>
+      <c r="R88" s="42"/>
+      <c r="S88" s="42"/>
+      <c r="T88" s="42"/>
+      <c r="V88" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="W88" s="41"/>
-      <c r="X88" s="41"/>
-      <c r="Y88" s="41"/>
-      <c r="Z88" s="41"/>
-      <c r="AA88" s="41"/>
-      <c r="AB88" s="41"/>
-      <c r="AC88" s="41"/>
-      <c r="AD88" s="41"/>
-      <c r="AF88" s="41" t="s">
+      <c r="W88" s="42"/>
+      <c r="X88" s="42"/>
+      <c r="Y88" s="42"/>
+      <c r="Z88" s="42"/>
+      <c r="AA88" s="42"/>
+      <c r="AB88" s="42"/>
+      <c r="AC88" s="42"/>
+      <c r="AD88" s="42"/>
+      <c r="AF88" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="AG88" s="41"/>
-      <c r="AH88" s="41"/>
-      <c r="AI88" s="41"/>
-      <c r="AJ88" s="41"/>
-      <c r="AK88" s="41"/>
-      <c r="AL88" s="41"/>
-      <c r="AM88" s="41"/>
-      <c r="AN88" s="41"/>
+      <c r="AG88" s="42"/>
+      <c r="AH88" s="42"/>
+      <c r="AI88" s="42"/>
+      <c r="AJ88" s="42"/>
+      <c r="AK88" s="42"/>
+      <c r="AL88" s="42"/>
+      <c r="AM88" s="42"/>
+      <c r="AN88" s="42"/>
       <c r="AQ88" s="4" t="s">
         <v>77</v>
       </c>
